--- a/biology/Botanique/Billbergia_amoena/Billbergia_amoena.xlsx
+++ b/biology/Botanique/Billbergia_amoena/Billbergia_amoena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Billbergia amoena est une espèce de plantes de la famille des Bromeliaceae, endémique du Brésil.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Billbergia binotii R.C.J.Gerard
@@ -530,8 +544,43 @@
 Pourretia magnispatha Colla
 Tillandsia amoena Lodd.
 Tillandsia variegata Vell.
-Autres synonymes
-Billbergia amoena var. amoena
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Billbergia_amoena</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Billbergia_amoena</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Billbergia amoena var. amoena
 Billbergia amoena var. carnea E.Pereira
 Billbergia amoena var. flavescens Reitz
 Billbergia amoena var. minor (Antoine &amp; Beer) L.B.Sm.
@@ -547,37 +596,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Billbergia_amoena</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Billbergia_amoena</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique du Brésil[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -599,12 +617,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique du Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Billbergia_amoena</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Billbergia_amoena</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte ou saxicole[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte ou saxicole.
 </t>
         </is>
       </c>
